--- a/webscrapping school/panorama/Project.xlsx
+++ b/webscrapping school/panorama/Project.xlsx
@@ -14,27 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Category:</t>
   </si>
   <si>
     <t>City</t>
-  </si>
-  <si>
-    <t>obróbka metali</t>
-  </si>
-  <si>
-    <t>Dolnośląskie</t>
-  </si>
-  <si>
-    <t>Kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Lubelskie</t>
-  </si>
-  <si>
-    <t>Everything from screenshot:</t>
   </si>
   <si>
     <t>Lubuskie</t>
@@ -129,13 +114,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -442,17 +433,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -467,185 +458,154 @@
       <c r="E1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="23.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="23.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="23.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="23.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="2"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="23.25">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="23.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="23.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
